--- a/Davis.xlsx
+++ b/Davis.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethom\Dropbox\Fall_2022\MA155-03\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC311F6D-897E-4CA2-B521-140C61809761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{856D97B1-14E8-4FEA-A832-AB78CFFBED73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Davis" sheetId="1" r:id="rId1"/>
-    <sheet name="definitions" sheetId="2" r:id="rId2"/>
+    <sheet name="Description_of_Data_Set" sheetId="2" r:id="rId1"/>
+    <sheet name="Data_Set" sheetId="1" r:id="rId2"/>
+    <sheet name="Put n = 25 here" sheetId="3" r:id="rId3"/>
+    <sheet name="Put n = 50 here" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Davis!$B$1:$F$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data_Set!$B$1:$F$200</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -676,7 +678,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Self-Reports of Height and Weight</a:t>
+            <a:t>Davis Data Set</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -705,6 +707,23 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
@@ -715,7 +734,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The Davis data frame has 200 rows and 5 columns. The subjects were men and women engaged in regular exercise. There are some missing data. After</a:t>
+            <a:t>The Davis data </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>frame (Self-Reports of Height and Weight) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>has 200 rows and 5 columns. The subjects were men and women engaged in regular exercise. There are some missing data. After</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
@@ -1313,11 +1356,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="F186" sqref="F186"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4970,17 +5028,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAB9C95-6287-4852-9D39-C2AAD8246A2D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6CFE8F-6E3E-4992-8B84-74BECF393A38}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>